--- a/nmadb/480804.xlsx
+++ b/nmadb/480804.xlsx
@@ -1,6 +1,198 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="315" windowWidth="21015" windowHeight="9705"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleinman 1989 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canadian EPO Study 1990 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roth 1994 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bennett 1991 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahlmann 1991 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREAT Study 2005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patel 2012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Biesen 2005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akizawa 2011 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locatelli 2001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nissenson 2002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krivoshiev 2010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krivoshiev 2008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar tin 2007 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMICUS Study 2007 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIVOLI Study 2013 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCTOS Study 2008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORDATUS Study 2011 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRONUS Study 2010 </t>
+  </si>
+  <si>
+    <t>Harm</t>
+  </si>
+  <si>
+    <t>Outcome:</t>
+  </si>
+  <si>
+    <t>blood transfusion</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>placebo/no treatment</t>
+  </si>
+  <si>
+    <t>epo-alpha</t>
+  </si>
+  <si>
+    <t>epo-beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darbepoetin alfa </t>
+  </si>
+  <si>
+    <t>Biosimilar ESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methoxy polyethylene glycol-epoetin beta </t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +266,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +334,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +469,781 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1989</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>1990</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>67</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>1994</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>43</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>1991</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>1991</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>297</v>
+      </c>
+      <c r="F12">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>496</v>
+      </c>
+      <c r="F13">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>2005</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>2001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>2002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>2010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2008</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>2007</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>46</v>
+      </c>
+      <c r="F29">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2007</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>2013</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2008</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="C35">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2011</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2010</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>32</v>
+      </c>
+      <c r="F38">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>39</v>
+      </c>
+      <c r="F39">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>